--- a/biology/Botanique/Jardin_botanique_de_Darmstadt/Jardin_botanique_de_Darmstadt.xlsx
+++ b/biology/Botanique/Jardin_botanique_de_Darmstadt/Jardin_botanique_de_Darmstadt.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le jardin botanique de Darmstadt est un jardin botanique situé en Allemagne à Darmstadt.
 </t>
@@ -511,7 +523,9 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">L'histoire du jardin botanique commence en 1814. À cette époque, les fossés du château de Darmstadt alimentés par un ruisseau et les eaux usées de la ville dégageaient une odeur fétide, surtout pendant les mois d'été. L'architecte de la ville, Johannes Hess (1786-1837), propose au grand-duc une remise en état et la création d'un jardin botanique dans les terrains adjacents. Elle est acceptée par le grand-duc le 17 juin 1814, date qui est donc considérée comme celle de la fondation du jardin.
 Au début ce sont surtout des plantes herbacées de la région de la Hesse qui sont représentées. La direction du jardin est confiée à Johann August Schnittspahn (1763-1842). Le jardin se trouve bientôt à l'étroit et il est transféré en 1829-1830 dans le « bosquet » du château grand-ducal, où il demeure jusqu'en 1838. Le fils de Schnittspahn, Gottfried (1790-1845), en devient le chef jardinier. SOn frère, Georg Friedrich (1810-1865) lui succède en 1830. Le poste de directeur du jardin est créé pour lui en 1855. Parallèlement, il enseigne la botanique et l'horticulture.
@@ -547,7 +561,9 @@
           <t>Localisation</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le jardin botanique se trouve à Darmstadt-Est, non loin du point le plus septentrional de la Odenwald. C'est un peu plus au nord que se trouve le cours inférieur du Main.
 </t>
@@ -578,7 +594,9 @@
           <t>Illustrations</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">
 			Vue d'une allée du jardin
@@ -613,7 +631,9 @@
           <t>Collections</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Le jardin botanique de Darmstadt cultive plus de 8 000 taxons.
 Arboretum, commencé en 1874, avec notamment des espèces de Clusia, Kalanchoe et le rare Metasequoia glyptostroboides
